--- a/results/I3_N5_M2_T45_C200_DepLowerLeft_s1_res_fix.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepLowerLeft_s1_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>398.5208472839664</v>
+        <v>34.30000008383182</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35.86084728397254</v>
+        <v>34.30000008383183</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.596973111893266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.596973111893266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>258.9899999999939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103.67</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,83 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -711,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -722,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -733,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -744,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -766,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -824,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -835,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -929,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>38.76072200618817</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22.83564378328381</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>31.60181147454999</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>33.75054662682655</v>
+        <v>32.48909622152298</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38.76616769126618</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.72408055859251</v>
+        <v>43.44641299045079</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36.46828465688021</v>
+        <v>35.20683425157665</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1019,104 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>126.97</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
@@ -1229,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>127.65</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
@@ -1240,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>136.855</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10">
@@ -1251,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>127.255</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
@@ -1262,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.4800000000003</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
@@ -1273,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>125.495</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
@@ -1284,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>121.6349999999989</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -1295,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>109.3699999999988</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -1306,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>122.0549999999988</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -1317,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>123.5549999999988</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -1328,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>81.0549999999991</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
@@ -1339,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>83.09999999999999</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19">
@@ -1350,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>68</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20">
@@ -1361,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>76.23999999999913</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
@@ -1372,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>77.71999999999913</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22">
@@ -1383,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>202.86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -1394,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>203.34</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -1405,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>217.055</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -1416,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>207.51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
@@ -1427,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>199.0450000000008</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -1438,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>227.2200000000004</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -1449,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>217.7549999999992</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
@@ -1460,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>207.6349999999992</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
@@ -1471,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>219</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
@@ -1482,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>227.1199999999992</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -1493,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>227.2200000000004</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33">
@@ -1504,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>217.7549999999992</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34">
@@ -1515,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>207.6349999999992</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35">
@@ -1526,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>219</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36">
@@ -1537,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>227.1199999999992</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37">
@@ -1548,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>202.86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
@@ -1559,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>203.34</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -1570,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>217.055</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
@@ -1581,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>207.51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
@@ -1592,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>199.0450000000008</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>27.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1650,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>17.75499999999922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1661,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>7.634999999999204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1672,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1683,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>27.11999999999922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1694,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.860000000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1705,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.340000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1716,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>17.0549999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1727,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>7.509999999999764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1840,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1851,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1862,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1873,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1884,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1895,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1906,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1917,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1928,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1939,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2063,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2088,105 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
